--- a/docs/StructureDefinition-ProcedureOperation.xlsx
+++ b/docs/StructureDefinition-ProcedureOperation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -637,6 +637,42 @@
   <si>
     <t>SUGENDS 
 ENDOSCOPIC / ROBOTIC / IMAGE GUIDED /</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://www.vghtpe.gov.tw/Index.action"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type
+</t>
+  </si>
+  <si>
+    <t>Identification of the procedure</t>
+  </si>
+  <si>
+    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").
+此處存SUGOPFIN 欄位與 SUGSUBCA(note)欄位要一起看</t>
+  </si>
+  <si>
+    <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -644,35 +680,6 @@
     &lt;system value="https://wd.vghtpe.gov.tw"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type
-</t>
-  </si>
-  <si>
-    <t>Identification of the procedure</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").
-此處存SUGOPFIN 欄位與 SUGSUBCA(note)欄位要一起看</t>
-  </si>
-  <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
     <t>A code to identify a specific procedure .</t>
@@ -3741,7 +3748,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>74</v>
@@ -3762,10 +3769,10 @@
         <v>192</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -3798,25 +3805,25 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3835,13 +3842,13 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3892,7 +3899,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>83</v>
@@ -3907,21 +3914,21 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3944,16 +3951,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4003,7 +4010,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4018,21 +4025,21 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4055,16 +4062,16 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4114,7 +4121,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4129,21 +4136,21 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4166,13 +4173,13 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4223,7 +4230,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4241,10 +4248,10 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4252,7 +4259,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4275,13 +4282,13 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4332,7 +4339,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4350,10 +4357,10 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4361,7 +4368,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4384,13 +4391,13 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4441,7 +4448,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4456,10 +4463,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4470,7 +4477,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4496,10 +4503,10 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4550,7 +4557,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4568,7 +4575,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4579,7 +4586,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4608,7 +4615,7 @@
         <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>132</v>
@@ -4661,7 +4668,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4679,7 +4686,7 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4690,11 +4697,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4716,10 +4723,10 @@
         <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>132</v>
@@ -4774,7 +4781,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4803,7 +4810,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,14 +4836,14 @@
         <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4864,10 +4871,10 @@
         <v>192</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4885,7 +4892,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4900,21 +4907,21 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4937,17 +4944,17 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4996,7 +5003,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>83</v>
@@ -5011,21 +5018,21 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5051,10 +5058,10 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5105,7 +5112,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5123,7 +5130,7 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5134,7 +5141,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5163,7 +5170,7 @@
         <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>132</v>
@@ -5204,19 +5211,19 @@
         <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5234,7 +5241,7 @@
         <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5245,7 +5252,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5271,13 +5278,13 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5327,7 +5334,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5336,7 +5343,7 @@
         <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>95</v>
@@ -5356,7 +5363,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5382,13 +5389,13 @@
         <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5414,13 +5421,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5438,7 +5445,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5467,7 +5474,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5493,13 +5500,13 @@
         <v>141</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5549,7 +5556,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5567,7 +5574,7 @@
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5578,7 +5585,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5604,13 +5611,13 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5660,7 +5667,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5689,7 +5696,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5712,17 +5719,17 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5771,7 +5778,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5789,7 +5796,7 @@
         <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5800,7 +5807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5823,17 +5830,17 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5882,7 +5889,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5900,10 +5907,10 @@
         <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -5911,7 +5918,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5937,13 +5944,13 @@
         <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5972,10 +5979,10 @@
         <v>192</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -5993,7 +6000,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6008,13 +6015,13 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6022,7 +6029,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6045,16 +6052,16 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6104,7 +6111,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6119,13 +6126,13 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6133,7 +6140,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6159,13 +6166,13 @@
         <v>188</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6173,7 +6180,7 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>74</v>
@@ -6194,10 +6201,10 @@
         <v>192</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6215,7 +6222,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6233,18 +6240,18 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6270,13 +6277,13 @@
         <v>188</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6305,10 +6312,10 @@
         <v>192</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6326,7 +6333,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6344,7 +6351,7 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6355,7 +6362,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6378,16 +6385,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6437,7 +6444,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6455,7 +6462,7 @@
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6466,7 +6473,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6492,13 +6499,13 @@
         <v>188</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6527,10 +6534,10 @@
         <v>192</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6548,7 +6555,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6566,7 +6573,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6577,7 +6584,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6600,17 +6607,17 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6659,7 +6666,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6677,7 +6684,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6688,7 +6695,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6714,10 +6721,10 @@
         <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6747,10 +6754,10 @@
         <v>192</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6768,7 +6775,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6786,7 +6793,7 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6797,7 +6804,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6820,13 +6827,13 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6877,7 +6884,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6892,21 +6899,21 @@
         <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6929,13 +6936,13 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6986,7 +6993,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7004,7 +7011,7 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7015,7 +7022,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7041,10 +7048,10 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7095,7 +7102,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7113,7 +7120,7 @@
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7124,7 +7131,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7153,7 +7160,7 @@
         <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>132</v>
@@ -7206,7 +7213,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7224,7 +7231,7 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7235,11 +7242,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7261,10 +7268,10 @@
         <v>129</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>132</v>
@@ -7319,7 +7326,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7348,7 +7355,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7374,10 +7381,10 @@
         <v>188</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7407,10 +7414,10 @@
         <v>107</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7428,7 +7435,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7446,7 +7453,7 @@
         <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7457,7 +7464,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7480,13 +7487,13 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7537,7 +7544,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>83</v>
@@ -7555,7 +7562,7 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7566,7 +7573,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7589,19 +7596,19 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7650,7 +7657,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7668,7 +7675,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7679,7 +7686,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7705,13 +7712,13 @@
         <v>188</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7740,10 +7747,10 @@
         <v>192</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>74</v>
@@ -7761,7 +7768,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7779,7 +7786,7 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
